--- a/data_year/zb/就业人员和工资/城镇单位就业人员平均工资和指数.xlsx
+++ b/data_year/zb/就业人员和工资/城镇单位就业人员平均工资和指数.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P22"/>
+  <dimension ref="A1:P14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -513,1093 +513,671 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>2000年</t>
+          <t>2010年</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>11238</v>
+        <v>35801</v>
       </c>
       <c r="C2" t="n">
-        <v>109.9271299922</v>
+        <v>110.6589147287</v>
       </c>
       <c r="D2" t="n">
-        <v>110.8065470321</v>
+        <v>114.2</v>
       </c>
       <c r="E2" t="n">
-        <v>9441</v>
+        <v>38359</v>
       </c>
       <c r="F2" t="n">
-        <v>110.9329791374</v>
+        <v>108.9147286822</v>
       </c>
       <c r="G2" t="n">
-        <v>111.8204429705</v>
+        <v>112.4</v>
       </c>
       <c r="H2" t="n">
-        <v>111.4087301587</v>
+        <v>109.980620155</v>
       </c>
       <c r="I2" t="n">
-        <v>9371</v>
+        <v>37147</v>
       </c>
       <c r="J2" t="n">
-        <v>112.3</v>
+        <v>113.5</v>
       </c>
       <c r="K2" t="n">
-        <v>111.2985764086</v>
+        <v>109.7868217054</v>
       </c>
       <c r="L2" t="n">
-        <v>9333</v>
+        <v>36539</v>
       </c>
       <c r="M2" t="n">
-        <v>112.1889650198</v>
+        <v>113.3</v>
       </c>
       <c r="N2" t="n">
-        <v>107.5281044454</v>
+        <v>112.8875968992</v>
       </c>
       <c r="O2" t="n">
-        <v>6241</v>
+        <v>24010</v>
       </c>
       <c r="P2" t="n">
-        <v>108.388329281</v>
+        <v>116.5</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>2001年</t>
+          <t>2011年</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>12437</v>
+        <v>41323</v>
       </c>
       <c r="C3" t="n">
-        <v>109.899859198813</v>
+        <v>109.6145775531</v>
       </c>
       <c r="D3" t="n">
-        <v>110.669158213205</v>
+        <v>115.4241501634</v>
       </c>
       <c r="E3" t="n">
-        <v>11045</v>
+        <v>43483</v>
       </c>
       <c r="F3" t="n">
-        <v>116.176490233023</v>
+        <v>107.6524334864</v>
       </c>
       <c r="G3" t="n">
-        <v>116.989725664654</v>
+        <v>113.3580124612</v>
       </c>
       <c r="H3" t="n">
-        <v>115.19364448858</v>
+        <v>108.5290592743</v>
       </c>
       <c r="I3" t="n">
-        <v>10870</v>
+        <v>42452</v>
       </c>
       <c r="J3" t="n">
-        <v>116</v>
+        <v>114.2810994158</v>
       </c>
       <c r="K3" t="n">
-        <v>115.275786732772</v>
+        <v>108.6377752406</v>
       </c>
       <c r="L3" t="n">
-        <v>10834</v>
+        <v>41799</v>
       </c>
       <c r="M3" t="n">
-        <v>116.082717239901</v>
+        <v>114.3955773283</v>
       </c>
       <c r="N3" t="n">
-        <v>109.010997683735</v>
+        <v>113.8770526526</v>
       </c>
       <c r="O3" t="n">
-        <v>6851</v>
+        <v>28791</v>
       </c>
       <c r="P3" t="n">
-        <v>109.774074667521</v>
+        <v>119.9125364431</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>2002年</t>
+          <t>2012年</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>13486</v>
+        <v>46360</v>
       </c>
       <c r="C4" t="n">
-        <v>109.529808010149</v>
+        <v>109.2</v>
       </c>
       <c r="D4" t="n">
-        <v>108.434509930047</v>
+        <v>112.189337656995</v>
       </c>
       <c r="E4" t="n">
-        <v>12701</v>
+        <v>48357</v>
       </c>
       <c r="F4" t="n">
-        <v>116.154757168791</v>
+        <v>108.2932174338</v>
       </c>
       <c r="G4" t="n">
-        <v>114.993209597103</v>
+        <v>111.208978221374</v>
       </c>
       <c r="H4" t="n">
-        <v>115.454545454545</v>
+        <v>109.1696913159</v>
       </c>
       <c r="I4" t="n">
-        <v>12422</v>
+        <v>47593</v>
       </c>
       <c r="J4" t="n">
+        <v>112.1</v>
+      </c>
+      <c r="K4" t="n">
+        <v>109</v>
+      </c>
+      <c r="L4" t="n">
+        <v>46769</v>
+      </c>
+      <c r="M4" t="n">
+        <v>111.890236608531</v>
+      </c>
+      <c r="N4" t="n">
         <v>114.3</v>
       </c>
-      <c r="K4" t="n">
-        <v>115.358868358684</v>
-      </c>
-      <c r="L4" t="n">
-        <v>12373</v>
-      </c>
-      <c r="M4" t="n">
-        <v>114.205279675097</v>
-      </c>
-      <c r="N4" t="n">
-        <v>112.584021502428</v>
-      </c>
       <c r="O4" t="n">
-        <v>7636</v>
+        <v>33784</v>
       </c>
       <c r="P4" t="n">
-        <v>111.458181287403</v>
+        <v>117.342225000868</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>2003年</t>
+          <t>2013年</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>14843</v>
+        <v>51453</v>
       </c>
       <c r="C5" t="n">
-        <v>109.080561760116</v>
+        <v>108.1871345029</v>
       </c>
       <c r="D5" t="n">
-        <v>110.062286815957</v>
+        <v>111</v>
       </c>
       <c r="E5" t="n">
-        <v>14358</v>
+        <v>52657</v>
       </c>
       <c r="F5" t="n">
-        <v>112.037875949772</v>
+        <v>106.1403508772</v>
       </c>
       <c r="G5" t="n">
-        <v>113.04621683332</v>
+        <v>108.9</v>
       </c>
       <c r="H5" t="n">
-        <v>111.99207135778</v>
+        <v>107.3099415205</v>
       </c>
       <c r="I5" t="n">
-        <v>14040</v>
+        <v>52388</v>
       </c>
       <c r="J5" t="n">
-        <v>113</v>
+        <v>110.1</v>
       </c>
       <c r="K5" t="n">
-        <v>111.892026157214</v>
+        <v>107.3099415205</v>
       </c>
       <c r="L5" t="n">
-        <v>13969</v>
+        <v>51483</v>
       </c>
       <c r="M5" t="n">
-        <v>112.899054392629</v>
+        <v>110.1</v>
       </c>
       <c r="N5" t="n">
-        <v>111.970266553351</v>
+        <v>112.2</v>
       </c>
       <c r="O5" t="n">
-        <v>8627</v>
+        <v>38905</v>
       </c>
       <c r="P5" t="n">
-        <v>112.977998952331</v>
+        <v>115.2</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2004年</t>
+          <t>2014年</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>16519</v>
+        <v>56485</v>
       </c>
       <c r="C6" t="n">
-        <v>107.736222543291</v>
+        <v>107.5218403917</v>
       </c>
       <c r="D6" t="n">
-        <v>111.29151788722</v>
+        <v>109.7797990399</v>
       </c>
       <c r="E6" t="n">
-        <v>16445</v>
+        <v>57296</v>
       </c>
       <c r="F6" t="n">
-        <v>110.876525285444</v>
+        <v>106.562193927522</v>
       </c>
       <c r="G6" t="n">
-        <v>114.535450619864</v>
+        <v>108.8</v>
       </c>
       <c r="H6" t="n">
-        <v>110.454985479187</v>
+        <v>107.2477962782</v>
       </c>
       <c r="I6" t="n">
-        <v>16024</v>
+        <v>57361</v>
       </c>
       <c r="J6" t="n">
-        <v>114.1</v>
+        <v>109.5</v>
       </c>
       <c r="K6" t="n">
-        <v>110.325886174316</v>
+        <v>107.2213809326</v>
       </c>
       <c r="L6" t="n">
-        <v>15920</v>
+        <v>56360</v>
       </c>
       <c r="M6" t="n">
-        <v>113.966640418069</v>
+        <v>109.473029932211</v>
       </c>
       <c r="N6" t="n">
-        <v>109.103872654472</v>
+        <v>107.639569049951</v>
       </c>
       <c r="O6" t="n">
-        <v>9723</v>
+        <v>42742</v>
       </c>
       <c r="P6" t="n">
-        <v>112.704300452069</v>
+        <v>109.9</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>2005年</t>
+          <t>2015年</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>18362</v>
+        <v>60906</v>
       </c>
       <c r="C7" t="n">
-        <v>109.4063481183</v>
+        <v>106.233356342479</v>
       </c>
       <c r="D7" t="n">
-        <v>111.1568496882</v>
+        <v>107.826856687616</v>
       </c>
       <c r="E7" t="n">
-        <v>18978</v>
+        <v>65296</v>
       </c>
       <c r="F7" t="n">
-        <v>113.5854901689</v>
+        <v>112.278404221514</v>
       </c>
       <c r="G7" t="n">
-        <v>115.4028580116</v>
+        <v>113.962580284837</v>
       </c>
       <c r="H7" t="n">
-        <v>112.7952755906</v>
+        <v>108.6215441518</v>
       </c>
       <c r="I7" t="n">
-        <v>18364</v>
+        <v>63241</v>
       </c>
       <c r="J7" t="n">
-        <v>114.6</v>
+        <v>110.250867314</v>
       </c>
       <c r="K7" t="n">
-        <v>112.5212677561</v>
+        <v>108.5</v>
       </c>
       <c r="L7" t="n">
-        <v>18200</v>
+        <v>62029</v>
       </c>
       <c r="M7" t="n">
-        <v>114.3216080402</v>
+        <v>110.058552164656</v>
       </c>
       <c r="N7" t="n">
-        <v>113.1338064383</v>
+        <v>107.431160453384</v>
       </c>
       <c r="O7" t="n">
-        <v>11176</v>
+        <v>46607</v>
       </c>
       <c r="P7" t="n">
-        <v>114.9439473414</v>
+        <v>109.042627860184</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2006年</t>
+          <t>2016年</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>21004</v>
+        <v>65531</v>
       </c>
       <c r="C8" t="n">
-        <v>112.697941722652</v>
+        <v>105.386875612145</v>
       </c>
       <c r="D8" t="n">
-        <v>114.388410848491</v>
+        <v>107.5936689325</v>
       </c>
       <c r="E8" t="n">
-        <v>21706</v>
+        <v>72538</v>
       </c>
       <c r="F8" t="n">
-        <v>112.684274817562</v>
+        <v>108.814887365328</v>
       </c>
       <c r="G8" t="n">
-        <v>114.374538939825</v>
+        <v>111.0910316099</v>
       </c>
       <c r="H8" t="n">
-        <v>112.669573045571</v>
+        <v>106.8514841806</v>
       </c>
       <c r="I8" t="n">
-        <v>21001</v>
+        <v>68993</v>
       </c>
       <c r="J8" t="n">
-        <v>114.359616641255</v>
+        <v>109.0953653484</v>
       </c>
       <c r="K8" t="n">
-        <v>112.8999079738</v>
+        <v>106.66013712047</v>
       </c>
       <c r="L8" t="n">
-        <v>20856</v>
+        <v>67569</v>
       </c>
       <c r="M8" t="n">
-        <v>114.593406593407</v>
+        <v>108.9313063245</v>
       </c>
       <c r="N8" t="n">
-        <v>113.420383580579</v>
+        <v>106.17042115573</v>
       </c>
       <c r="O8" t="n">
-        <v>12866</v>
+        <v>50527</v>
       </c>
       <c r="P8" t="n">
-        <v>115.121689334288</v>
+        <v>108.4107537494</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>2007年</t>
+          <t>2017年</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>24271</v>
+        <v>71304</v>
       </c>
       <c r="C9" t="n">
-        <v>110.622009569378</v>
+        <v>106.9907286556</v>
       </c>
       <c r="D9" t="n">
-        <v>115.6</v>
+        <v>108.8095710427</v>
       </c>
       <c r="E9" t="n">
-        <v>26100</v>
+        <v>81114</v>
       </c>
       <c r="F9" t="n">
-        <v>115.023923444976</v>
+        <v>109.9535582652</v>
       </c>
       <c r="G9" t="n">
-        <v>120.2</v>
+        <v>111.8227687557</v>
       </c>
       <c r="H9" t="n">
-        <v>113.588516746411</v>
+        <v>108.4872004956</v>
       </c>
       <c r="I9" t="n">
-        <v>24932</v>
+        <v>76121</v>
       </c>
       <c r="J9" t="n">
-        <v>118.7</v>
+        <v>110.3314829041</v>
       </c>
       <c r="K9" t="n">
-        <v>113.397129186603</v>
+        <v>108.161258603736</v>
       </c>
       <c r="L9" t="n">
-        <v>24721</v>
+        <v>74318</v>
       </c>
       <c r="M9" t="n">
-        <v>118.5</v>
+        <v>109.9883082479</v>
       </c>
       <c r="N9" t="n">
-        <v>114.832535885167</v>
+        <v>107.506021246</v>
       </c>
       <c r="O9" t="n">
-        <v>15444</v>
+        <v>55243</v>
       </c>
       <c r="P9" t="n">
-        <v>120</v>
+        <v>109.3336236072</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>2008年</t>
+          <t>2018年</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>28552</v>
+        <v>79453</v>
       </c>
       <c r="C10" t="n">
-        <v>111.363636363636</v>
+        <v>109.1087169442</v>
       </c>
       <c r="D10" t="n">
-        <v>117.6</v>
+        <v>111.4</v>
       </c>
       <c r="E10" t="n">
-        <v>30287</v>
+        <v>89474</v>
       </c>
       <c r="F10" t="n">
-        <v>109.848484848485</v>
+        <v>108.037690729559</v>
       </c>
       <c r="G10" t="n">
-        <v>116</v>
+        <v>110.306482234879</v>
       </c>
       <c r="H10" t="n">
-        <v>110.984848484848</v>
+        <v>109.0107737512</v>
       </c>
       <c r="I10" t="n">
-        <v>29229</v>
+        <v>84744</v>
       </c>
       <c r="J10" t="n">
-        <v>117.2</v>
+        <v>111.3</v>
       </c>
       <c r="K10" t="n">
-        <v>110.700757575758</v>
+        <v>108.611539067668</v>
       </c>
       <c r="L10" t="n">
-        <v>28898</v>
+        <v>82413</v>
       </c>
       <c r="M10" t="n">
-        <v>116.9</v>
+        <v>110.9</v>
       </c>
       <c r="N10" t="n">
-        <v>110.984848484848</v>
+        <v>107.554366290805</v>
       </c>
       <c r="O10" t="n">
-        <v>18103</v>
+        <v>60664</v>
       </c>
       <c r="P10" t="n">
-        <v>117.2</v>
+        <v>109.813007982912</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>2009年</t>
+          <t>2019年</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>31350</v>
+        <v>87195</v>
       </c>
       <c r="C11" t="n">
-        <v>110.79717457114</v>
+        <v>106.7549858539</v>
       </c>
       <c r="D11" t="n">
-        <v>109.8</v>
+        <v>109.7441254578</v>
       </c>
       <c r="E11" t="n">
-        <v>34130</v>
+        <v>98899</v>
       </c>
       <c r="F11" t="n">
-        <v>113.72351160444</v>
+        <v>107.5231384741</v>
       </c>
       <c r="G11" t="n">
-        <v>112.7</v>
+        <v>110.5337863513</v>
       </c>
       <c r="H11" t="n">
-        <v>113.017154389506</v>
+        <v>107.1928327238</v>
       </c>
       <c r="I11" t="n">
-        <v>32736</v>
+        <v>93383</v>
       </c>
       <c r="J11" t="n">
-        <v>112</v>
+        <v>110.19423204</v>
       </c>
       <c r="K11" t="n">
-        <v>112.613521695257</v>
+        <v>106.8229432467</v>
       </c>
       <c r="L11" t="n">
-        <v>32244</v>
+        <v>90501</v>
       </c>
       <c r="M11" t="n">
-        <v>111.6</v>
+        <v>109.8139856576</v>
       </c>
       <c r="N11" t="n">
-        <v>114.833501513623</v>
+        <v>100.3999320618</v>
       </c>
       <c r="O11" t="n">
-        <v>20607</v>
+        <v>62612</v>
       </c>
       <c r="P11" t="n">
-        <v>113.8</v>
+        <v>103.2111301596</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>2010年</t>
+          <t>2020年</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>35801</v>
+        <v>92721</v>
       </c>
       <c r="C12" t="n">
-        <v>110.6589147287</v>
+        <v>103.946744235752</v>
       </c>
       <c r="D12" t="n">
-        <v>114.2</v>
+        <v>106.337519353174</v>
       </c>
       <c r="E12" t="n">
-        <v>38359</v>
+        <v>108132</v>
       </c>
       <c r="F12" t="n">
-        <v>108.9147286822</v>
+        <v>106.877602165235</v>
       </c>
       <c r="G12" t="n">
-        <v>112.4</v>
+        <v>109.335787015036</v>
       </c>
       <c r="H12" t="n">
-        <v>109.980620155</v>
+        <v>105.214224659188</v>
       </c>
       <c r="I12" t="n">
-        <v>37147</v>
+        <v>100512</v>
       </c>
       <c r="J12" t="n">
-        <v>113.5</v>
+        <v>107.63415182635</v>
       </c>
       <c r="K12" t="n">
-        <v>109.7868217054</v>
+        <v>105.180758575784</v>
       </c>
       <c r="L12" t="n">
-        <v>36539</v>
+        <v>97379</v>
       </c>
       <c r="M12" t="n">
-        <v>113.3</v>
+        <v>107.599916023027</v>
       </c>
       <c r="N12" t="n">
-        <v>112.8875968992</v>
+        <v>107.084741484413</v>
       </c>
       <c r="O12" t="n">
-        <v>24010</v>
+        <v>68590</v>
       </c>
       <c r="P12" t="n">
-        <v>116.5</v>
+        <v>109.547690538555</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>2011年</t>
+          <t>2021年</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>41323</v>
+        <v>103182</v>
       </c>
       <c r="C13" t="n">
-        <v>109.6145775531</v>
+        <v>110.180429503137</v>
       </c>
       <c r="D13" t="n">
-        <v>115.4241501634</v>
+        <v>111.282233798169</v>
       </c>
       <c r="E13" t="n">
-        <v>43483</v>
+        <v>115583</v>
       </c>
       <c r="F13" t="n">
-        <v>107.6524334864</v>
+        <v>105.8323288771</v>
       </c>
       <c r="G13" t="n">
-        <v>113.3580124612</v>
+        <v>106.890652165871</v>
       </c>
       <c r="H13" t="n">
-        <v>108.5290592743</v>
+        <v>108.6</v>
       </c>
       <c r="I13" t="n">
-        <v>42452</v>
+        <v>110221</v>
       </c>
       <c r="J13" t="n">
-        <v>114.2810994158</v>
+        <v>109.659543139128</v>
       </c>
       <c r="K13" t="n">
-        <v>108.6377752406</v>
+        <v>108.6263033311</v>
       </c>
       <c r="L13" t="n">
-        <v>41799</v>
+        <v>106837</v>
       </c>
       <c r="M13" t="n">
-        <v>114.3955773283</v>
+        <v>109.712566364411</v>
       </c>
       <c r="N13" t="n">
-        <v>113.8770526526</v>
+        <v>107.528014793023</v>
       </c>
       <c r="O13" t="n">
-        <v>28791</v>
+        <v>74491</v>
       </c>
       <c r="P13" t="n">
-        <v>119.9125364431</v>
+        <v>108.603294940953</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>2012年</t>
+          <t>2022年</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>46360</v>
+        <v>109895.012152914</v>
       </c>
       <c r="C14" t="n">
-        <v>109.2</v>
+        <v>104.417638728706</v>
       </c>
       <c r="D14" t="n">
-        <v>112.2</v>
+        <v>106.50599150328</v>
       </c>
       <c r="E14" t="n">
-        <v>48357</v>
+        <v>123622</v>
       </c>
       <c r="F14" t="n">
-        <v>108.2932174338</v>
+        <v>104.858862988366</v>
       </c>
       <c r="G14" t="n">
-        <v>111.2</v>
-      </c>
-      <c r="H14" t="n">
-        <v>109.1696913159</v>
-      </c>
-      <c r="I14" t="n">
-        <v>47593</v>
-      </c>
-      <c r="J14" t="n">
-        <v>112.1</v>
-      </c>
+        <v>106.956040248133</v>
+      </c>
+      <c r="H14" t="inlineStr"/>
+      <c r="I14" t="inlineStr"/>
+      <c r="J14" t="inlineStr"/>
       <c r="K14" t="n">
-        <v>109</v>
+        <v>104.638970819942</v>
       </c>
       <c r="L14" t="n">
-        <v>46769</v>
+        <v>114029</v>
       </c>
       <c r="M14" t="n">
-        <v>111.9</v>
+        <v>106.731750236341</v>
       </c>
       <c r="N14" t="n">
-        <v>114.3</v>
+        <v>102.483758401133</v>
       </c>
       <c r="O14" t="n">
-        <v>33784</v>
+        <v>77868</v>
       </c>
       <c r="P14" t="n">
-        <v>117.3</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="inlineStr">
-        <is>
-          <t>2013年</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
-        <v>51453</v>
-      </c>
-      <c r="C15" t="n">
-        <v>108.1871345029</v>
-      </c>
-      <c r="D15" t="n">
-        <v>111</v>
-      </c>
-      <c r="E15" t="n">
-        <v>52657</v>
-      </c>
-      <c r="F15" t="n">
-        <v>106.1403508772</v>
-      </c>
-      <c r="G15" t="n">
-        <v>108.9</v>
-      </c>
-      <c r="H15" t="n">
-        <v>107.3099415205</v>
-      </c>
-      <c r="I15" t="n">
-        <v>52388</v>
-      </c>
-      <c r="J15" t="n">
-        <v>110.1</v>
-      </c>
-      <c r="K15" t="n">
-        <v>107.3099415205</v>
-      </c>
-      <c r="L15" t="n">
-        <v>51483</v>
-      </c>
-      <c r="M15" t="n">
-        <v>110.1</v>
-      </c>
-      <c r="N15" t="n">
-        <v>112.2</v>
-      </c>
-      <c r="O15" t="n">
-        <v>38905</v>
-      </c>
-      <c r="P15" t="n">
-        <v>115.2</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="inlineStr">
-        <is>
-          <t>2014年</t>
-        </is>
-      </c>
-      <c r="B16" t="n">
-        <v>56485</v>
-      </c>
-      <c r="C16" t="n">
-        <v>107.5218403917</v>
-      </c>
-      <c r="D16" t="n">
-        <v>109.8</v>
-      </c>
-      <c r="E16" t="n">
-        <v>57296</v>
-      </c>
-      <c r="F16" t="n">
-        <v>106.571836283</v>
-      </c>
-      <c r="G16" t="n">
-        <v>108.8</v>
-      </c>
-      <c r="H16" t="n">
-        <v>107.2477962782</v>
-      </c>
-      <c r="I16" t="n">
-        <v>57361</v>
-      </c>
-      <c r="J16" t="n">
-        <v>109.5</v>
-      </c>
-      <c r="K16" t="n">
-        <v>107.2213809326</v>
-      </c>
-      <c r="L16" t="n">
-        <v>56360</v>
-      </c>
-      <c r="M16" t="n">
-        <v>109.5</v>
-      </c>
-      <c r="N16" t="n">
-        <v>107.6028261917</v>
-      </c>
-      <c r="O16" t="n">
-        <v>42742</v>
-      </c>
-      <c r="P16" t="n">
-        <v>109.9</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="inlineStr">
-        <is>
-          <t>2015年</t>
-        </is>
-      </c>
-      <c r="B17" t="n">
-        <v>60906</v>
-      </c>
-      <c r="C17" t="n">
-        <v>106.2</v>
-      </c>
-      <c r="D17" t="n">
-        <v>107.8</v>
-      </c>
-      <c r="E17" t="n">
-        <v>65296</v>
-      </c>
-      <c r="F17" t="n">
-        <v>112.3</v>
-      </c>
-      <c r="G17" t="n">
-        <v>114</v>
-      </c>
-      <c r="H17" t="n">
-        <v>108.6215441518</v>
-      </c>
-      <c r="I17" t="n">
-        <v>63241</v>
-      </c>
-      <c r="J17" t="n">
-        <v>110.250867314</v>
-      </c>
-      <c r="K17" t="n">
-        <v>108.5</v>
-      </c>
-      <c r="L17" t="n">
-        <v>62029</v>
-      </c>
-      <c r="M17" t="n">
-        <v>110.1</v>
-      </c>
-      <c r="N17" t="n">
-        <v>107.4</v>
-      </c>
-      <c r="O17" t="n">
-        <v>46607</v>
-      </c>
-      <c r="P17" t="n">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="inlineStr">
-        <is>
-          <t>2016年</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
-        <v>65531</v>
-      </c>
-      <c r="C18" t="n">
-        <v>105.3806747624</v>
-      </c>
-      <c r="D18" t="n">
-        <v>107.5936689325</v>
-      </c>
-      <c r="E18" t="n">
-        <v>72538</v>
-      </c>
-      <c r="F18" t="n">
-        <v>108.8061034377</v>
-      </c>
-      <c r="G18" t="n">
-        <v>111.0910316099</v>
-      </c>
-      <c r="H18" t="n">
-        <v>106.8514841806</v>
-      </c>
-      <c r="I18" t="n">
-        <v>68993</v>
-      </c>
-      <c r="J18" t="n">
-        <v>109.0953653484</v>
-      </c>
-      <c r="K18" t="n">
-        <v>106.66013712047</v>
-      </c>
-      <c r="L18" t="n">
-        <v>67569</v>
-      </c>
-      <c r="M18" t="n">
-        <v>108.9313063245</v>
-      </c>
-      <c r="N18" t="n">
-        <v>106.1809537213</v>
-      </c>
-      <c r="O18" t="n">
-        <v>50527</v>
-      </c>
-      <c r="P18" t="n">
-        <v>108.4107537494</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="1" t="inlineStr">
-        <is>
-          <t>2017年</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
-        <v>71304</v>
-      </c>
-      <c r="C19" t="n">
-        <v>106.9907286556</v>
-      </c>
-      <c r="D19" t="n">
-        <v>108.8095710427</v>
-      </c>
-      <c r="E19" t="n">
-        <v>81114</v>
-      </c>
-      <c r="F19" t="n">
-        <v>109.9535582652</v>
-      </c>
-      <c r="G19" t="n">
-        <v>111.8227687557</v>
-      </c>
-      <c r="H19" t="n">
-        <v>108.4872004956</v>
-      </c>
-      <c r="I19" t="n">
-        <v>76121</v>
-      </c>
-      <c r="J19" t="n">
-        <v>110.3314829041</v>
-      </c>
-      <c r="K19" t="n">
-        <v>108.161258603736</v>
-      </c>
-      <c r="L19" t="n">
-        <v>74318</v>
-      </c>
-      <c r="M19" t="n">
-        <v>109.9883082479</v>
-      </c>
-      <c r="N19" t="n">
-        <v>107.506021246</v>
-      </c>
-      <c r="O19" t="n">
-        <v>55243</v>
-      </c>
-      <c r="P19" t="n">
-        <v>109.3336236072</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="1" t="inlineStr">
-        <is>
-          <t>2018年</t>
-        </is>
-      </c>
-      <c r="B20" t="n">
-        <v>79453</v>
-      </c>
-      <c r="C20" t="n">
-        <v>109.1087169442</v>
-      </c>
-      <c r="D20" t="n">
-        <v>111.4</v>
-      </c>
-      <c r="E20" t="n">
-        <v>89474</v>
-      </c>
-      <c r="F20" t="n">
-        <v>108.0313418217</v>
-      </c>
-      <c r="G20" t="n">
-        <v>110.3</v>
-      </c>
-      <c r="H20" t="n">
-        <v>109.0107737512</v>
-      </c>
-      <c r="I20" t="n">
-        <v>84744</v>
-      </c>
-      <c r="J20" t="n">
-        <v>111.3</v>
-      </c>
-      <c r="K20" t="n">
-        <v>108.611539067668</v>
-      </c>
-      <c r="L20" t="n">
-        <v>82413</v>
-      </c>
-      <c r="M20" t="n">
-        <v>110.9</v>
-      </c>
-      <c r="N20" t="n">
-        <v>107.541625857</v>
-      </c>
-      <c r="O20" t="n">
-        <v>60664</v>
-      </c>
-      <c r="P20" t="n">
-        <v>109.8</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="1" t="inlineStr">
-        <is>
-          <t>2019年</t>
-        </is>
-      </c>
-      <c r="B21" t="n">
-        <v>87195</v>
-      </c>
-      <c r="C21" t="n">
-        <v>106.7549858539</v>
-      </c>
-      <c r="D21" t="n">
-        <v>109.7441254578</v>
-      </c>
-      <c r="E21" t="n">
-        <v>98899</v>
-      </c>
-      <c r="F21" t="n">
-        <v>107.5231384741</v>
-      </c>
-      <c r="G21" t="n">
-        <v>110.5337863513</v>
-      </c>
-      <c r="H21" t="n">
-        <v>107.1928327238</v>
-      </c>
-      <c r="I21" t="n">
-        <v>93383</v>
-      </c>
-      <c r="J21" t="n">
-        <v>110.19423204</v>
-      </c>
-      <c r="K21" t="n">
-        <v>106.8229432467</v>
-      </c>
-      <c r="L21" t="n">
-        <v>90501</v>
-      </c>
-      <c r="M21" t="n">
-        <v>109.8139856576</v>
-      </c>
-      <c r="N21" t="n">
-        <v>100.3999320618</v>
-      </c>
-      <c r="O21" t="n">
-        <v>62612</v>
-      </c>
-      <c r="P21" t="n">
-        <v>103.2111301596</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="1" t="inlineStr">
-        <is>
-          <t>2020年</t>
-        </is>
-      </c>
-      <c r="B22" t="n">
-        <v>92721</v>
-      </c>
-      <c r="C22" t="n">
-        <v>103.946744235752</v>
-      </c>
-      <c r="D22" t="n">
-        <v>106.337519353174</v>
-      </c>
-      <c r="E22" t="n">
-        <v>108132</v>
-      </c>
-      <c r="F22" t="n">
-        <v>106.877602165235</v>
-      </c>
-      <c r="G22" t="n">
-        <v>109.335787015036</v>
-      </c>
-      <c r="H22" t="n">
-        <v>105.214224659188</v>
-      </c>
-      <c r="I22" t="n">
-        <v>100512</v>
-      </c>
-      <c r="J22" t="n">
-        <v>107.63415182635</v>
-      </c>
-      <c r="K22" t="n">
-        <v>105.180758575784</v>
-      </c>
-      <c r="L22" t="n">
-        <v>97379</v>
-      </c>
-      <c r="M22" t="n">
-        <v>107.599916023027</v>
-      </c>
-      <c r="N22" t="n">
-        <v>107.084741484413</v>
-      </c>
-      <c r="O22" t="n">
-        <v>68590</v>
-      </c>
-      <c r="P22" t="n">
-        <v>109.547690538555</v>
+        <v>104.533433569156</v>
       </c>
     </row>
   </sheetData>
